--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bablove/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\100daysofdsa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A296DB3B-D750-F440-AE8C-C019300B98C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C30747-61DC-42A1-9AD0-1E8692E2821D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="940" windowWidth="27640" windowHeight="16200" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="3384" yWindow="3384" windowWidth="16164" windowHeight="8088" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1495,12 +1495,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1516,7 +1522,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1540,6 +1546,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1857,18 +1864,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="B43" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="28.5" customWidth="1"/>
     <col min="2" max="2" width="123" customWidth="1"/>
     <col min="3" max="3" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26">
+    <row r="1" spans="1:3" ht="24.6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2362,7 +2369,7 @@
       <c r="A49" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="11" t="s">
         <v>48</v>
       </c>
       <c r="C49" s="4" t="s">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\100daysofdsa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C30747-61DC-42A1-9AD0-1E8692E2821D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D108D1-B385-4051-A3E0-F57116942AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3384" yWindow="3384" windowWidth="16164" windowHeight="8088" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="466">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1426,6 +1426,9 @@
   </si>
   <si>
     <t xml:space="preserve">Youtube Channel: https://www.youtube.com/channel/UCQHLxxBFrbfdrk1jF0moTpw </t>
+  </si>
+  <si>
+    <t>Completed</t>
   </si>
 </sst>
 </file>
@@ -1864,8 +1867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B43" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2304,7 +2307,9 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="21">
-      <c r="A43" s="5"/>
+      <c r="A43" s="5" t="s">
+        <v>465</v>
+      </c>
       <c r="B43" s="7"/>
       <c r="C43" s="4" t="s">
         <v>4</v>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\100daysofdsa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D108D1-B385-4051-A3E0-F57116942AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5A4155-89A6-45D9-AFF4-774DBDCCDF79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3384" yWindow="3384" windowWidth="16164" windowHeight="8088" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1867,8 +1867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2500,7 +2500,7 @@
       <c r="A62" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="11" t="s">
         <v>60</v>
       </c>
       <c r="C62" s="4" t="s">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\100daysofdsa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5A4155-89A6-45D9-AFF4-774DBDCCDF79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B546161C-D274-47B0-BA49-D16890EA8BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3384" yWindow="3384" windowWidth="16164" windowHeight="8088" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1867,8 +1867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="B62" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2566,7 +2566,7 @@
       <c r="A68" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="11" t="s">
         <v>66</v>
       </c>
       <c r="C68" s="4" t="s">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\100daysofdsa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B546161C-D274-47B0-BA49-D16890EA8BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2B5DBD-148A-457F-AAB3-10560BA669BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3384" yWindow="3384" windowWidth="16164" windowHeight="8088" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="3732" yWindow="3732" windowWidth="16164" windowHeight="8088" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1868,7 +1868,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B62" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2610,7 +2610,7 @@
       <c r="A72" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="11" t="s">
         <v>70</v>
       </c>
       <c r="C72" s="4" t="s">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\100daysofdsa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2B5DBD-148A-457F-AAB3-10560BA669BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A461487D-25B6-425C-88EE-1F39A5172AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3732" yWindow="3732" windowWidth="16164" windowHeight="8088" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1867,8 +1867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B62" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView tabSelected="1" topLeftCell="B74" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2687,7 +2687,7 @@
       <c r="A79" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="B79" s="11" t="s">
         <v>77</v>
       </c>
       <c r="C79" s="4" t="s">
